--- a/HBDP/wwwroot/Тепловой баланс доменной печи.xlsx
+++ b/HBDP/wwwroot/Тепловой баланс доменной печи.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\Учёба\Лавров - Разработка ПО\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\Учёба\Лавров - Разработка ПО\HBDP\HBDP\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC1D8E-A9E1-4A75-98C7-D1543CA78D81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB57DC68-5C67-4BBF-AC7D-4450923347D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="5" r:id="rId1"/>
@@ -1420,11 +1420,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1596,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1629,22 +1624,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1654,6 +1636,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1995,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2020,19 +2009,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="30" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2048,13 +2037,13 @@
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>0.53</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="8" t="s">
         <v>217</v>
       </c>
@@ -2064,7 +2053,7 @@
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="32">
         <v>0.19</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2080,7 +2069,7 @@
       <c r="B7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>1.4E-2</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2092,7 +2081,7 @@
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="32">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2104,7 +2093,7 @@
       <c r="B9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="32">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2116,7 +2105,7 @@
       <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="32">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2128,7 +2117,7 @@
       <c r="B11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="32">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -2140,7 +2129,7 @@
       <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="32">
         <v>5.13</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2154,7 +2143,7 @@
       <c r="B13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="32">
         <v>1405</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2168,7 +2157,7 @@
       <c r="B14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="32">
         <v>0.9</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2180,7 +2169,7 @@
         <v>90</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="32"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2190,7 +2179,7 @@
       <c r="B16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="32">
         <v>0.35</v>
       </c>
       <c r="D16" s="3"/>
@@ -2200,7 +2189,7 @@
         <v>91</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2210,7 +2199,7 @@
       <c r="B18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="32">
         <v>420</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2224,7 +2213,7 @@
       <c r="B19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="32">
         <v>11.9</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2238,7 +2227,7 @@
       <c r="B20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="32">
         <v>0.5</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2249,13 +2238,13 @@
       <c r="A21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="32">
         <v>0.6</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2263,13 +2252,13 @@
       <c r="A22" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="32">
         <v>4.2</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2277,7 +2266,7 @@
       <c r="A23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -2286,7 +2275,7 @@
       <c r="B24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="32">
         <v>1140</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2300,7 +2289,7 @@
       <c r="B25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="32">
         <v>6.36</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2314,7 +2303,7 @@
       <c r="B26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="32">
         <v>24.1</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2328,7 +2317,7 @@
       <c r="B27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="32">
         <v>115</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2339,7 +2328,7 @@
       <c r="A28" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="32">
         <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2350,7 +2339,7 @@
       <c r="A29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="32">
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -2361,7 +2350,7 @@
       <c r="A30" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="32">
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2375,7 +2364,7 @@
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="32">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2389,7 +2378,7 @@
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="32">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2400,19 +2389,19 @@
       <c r="A33" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="38"/>
+      <c r="C33" s="34"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="32">
         <v>0</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="26" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2421,7 +2410,7 @@
         <v>111</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="35">
+      <c r="C35" s="32">
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -2435,7 +2424,7 @@
       <c r="B36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="32">
         <v>42</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2447,7 +2436,7 @@
         <v>113</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -2457,7 +2446,7 @@
       <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="32">
         <v>260</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2471,7 +2460,7 @@
       <c r="B39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="32">
         <v>1.03</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2483,7 +2472,7 @@
         <v>115</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="35">
+      <c r="C40" s="32">
         <v>1.26</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2495,7 +2484,7 @@
         <v>117</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="35"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,7 +2492,7 @@
         <v>118</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="35">
+      <c r="C42" s="32">
         <v>328</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -2515,7 +2504,7 @@
         <v>119</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="35">
+      <c r="C43" s="32">
         <v>17.5</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2527,7 +2516,7 @@
         <v>120</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="35">
+      <c r="C44" s="32">
         <v>24.1</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -2539,7 +2528,7 @@
         <v>121</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="35">
+      <c r="C45" s="32">
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2551,7 +2540,7 @@
         <v>122</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="35">
+      <c r="C46" s="32">
         <v>51.4</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -2563,7 +2552,7 @@
         <v>123</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
@@ -2573,7 +2562,7 @@
       <c r="B48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="32">
         <v>1716</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -2587,7 +2576,7 @@
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="32">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -2599,7 +2588,7 @@
         <v>126</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="35">
+      <c r="C50" s="32">
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -2607,21 +2596,21 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="15"/>
     </row>
   </sheetData>
@@ -2645,14 +2634,14 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C5" sqref="C5:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
@@ -2663,10 +2652,10 @@
       <c r="A1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="8" t="s">
         <v>217</v>
       </c>
@@ -2684,16 +2673,16 @@
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="29" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2704,7 +2693,7 @@
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <f>100-'Исходные данные'!C5-'Исходные данные'!C6-'Исходные данные'!C7-'Исходные данные'!C8-'Исходные данные'!C9-'Исходные данные'!C10-'Исходные данные'!C11-'Исходные данные'!C12</f>
         <v>94.004000000000005</v>
       </c>
@@ -2749,7 +2738,7 @@
       <c r="B8" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="35">
         <f>100-('Исходные данные'!C19+'Исходные данные'!C20+'Исходные данные'!C21)</f>
         <v>87</v>
       </c>
@@ -2764,7 +2753,7 @@
       <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <f>0.01*'Исходные данные'!C18*'Промежуточные расчеты'!C8</f>
         <v>365.40000000000003</v>
       </c>
@@ -2851,7 +2840,7 @@
       <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="35">
         <f>'Исходные данные'!C27/'Промежуточные расчеты'!C12</f>
         <v>0.48940159295282809</v>
       </c>
@@ -2881,7 +2870,7 @@
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <f>C16*C12</f>
         <v>1130.0890284455556</v>
       </c>
@@ -3027,7 +3016,7 @@
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="22">
         <f>0.01*'Исходные данные'!C34*22.4/44*'Исходные данные'!C36</f>
         <v>0</v>
       </c>
@@ -3042,7 +3031,7 @@
       <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="22">
         <f>C24*C22</f>
         <v>295.18973164887439</v>
       </c>
@@ -3057,7 +3046,7 @@
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="22">
         <f>C28+C27</f>
         <v>295.18973164887439</v>
       </c>
@@ -3072,7 +3061,7 @@
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="22">
         <f>C24-C28</f>
         <v>406.51843044216412</v>
       </c>
@@ -3087,7 +3076,7 @@
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="22">
         <f>C10*22.4/12</f>
         <v>5.4566400000000002</v>
       </c>
@@ -3102,7 +3091,7 @@
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="22">
         <f>C26</f>
         <v>844.14811653216157</v>
       </c>
@@ -3117,7 +3106,7 @@
       <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="22">
         <f>C25</f>
         <v>126.50278279634998</v>
       </c>
@@ -3132,7 +3121,7 @@
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="22">
         <f>C29+C30+C32+C33+C31</f>
         <v>1677.8157014195501</v>
       </c>
@@ -3153,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3173,16 +3162,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="29" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3196,14 +3185,14 @@
         <v>141</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <f>'Промежуточные расчеты'!C12*9800*0.001</f>
         <v>2302.8122838754798</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="30" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3212,7 +3201,7 @@
         <v>142</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="28">
+      <c r="C5" s="36">
         <f>C4/C15</f>
         <v>0.53107272522785876</v>
       </c>
@@ -3225,14 +3214,14 @@
         <v>143</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="29">
+      <c r="C6" s="22">
         <f>1.2897+0.000121*'Исходные данные'!C24</f>
         <v>1.42764</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="8" t="s">
         <v>217</v>
       </c>
@@ -3242,7 +3231,7 @@
         <v>145</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="29">
+      <c r="C7" s="22">
         <f>1.2897+0.000121*'Исходные данные'!C24</f>
         <v>1.42764</v>
       </c>
@@ -3259,7 +3248,7 @@
         <v>146</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="29">
+      <c r="C8" s="22">
         <f>1.456+0.000282*'Исходные данные'!C24</f>
         <v>1.7774799999999999</v>
       </c>
@@ -3272,7 +3261,7 @@
         <v>148</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <f>0.001*'Промежуточные расчеты'!C17*((0.01*'Исходные данные'!C26*'Тепловой баланс'!C6+(1-0.01*'Исходные данные'!C26)*'Тепловой баланс'!C7)*(1-0.00124*'Исходные данные'!C25)+0.00124*'Исходные данные'!C25*'Тепловой баланс'!C8)*'Исходные данные'!C24</f>
         <v>1842.7851383515317</v>
       </c>
@@ -3285,7 +3274,7 @@
         <v>147</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="28">
+      <c r="C10" s="36">
         <f>C9/C15</f>
         <v>0.42498163323444532</v>
       </c>
@@ -3298,7 +3287,7 @@
         <v>150</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <f>0.001*'Исходные данные'!C27*(0.01*(1657*'Исходные данные'!C28+6046*'Исходные данные'!C29-12644*'Исходные данные'!C30))</f>
         <v>190.55500000000001</v>
       </c>
@@ -3311,7 +3300,7 @@
         <v>149</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="28">
+      <c r="C12" s="36">
         <f>C11/C15</f>
         <v>4.3945641537695888E-2</v>
       </c>
@@ -3324,7 +3313,7 @@
         <v>152</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="20">
+      <c r="C13" s="22">
         <f>1128*0.00001*'Исходные данные'!C34*'Исходные данные'!C36</f>
         <v>0</v>
       </c>
@@ -3337,7 +3326,7 @@
         <v>151</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="28">
+      <c r="C14" s="36">
         <f>C13/C15</f>
         <v>0</v>
       </c>
@@ -3350,7 +3339,7 @@
         <v>154</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="26">
+      <c r="C15" s="22">
         <f>C4+C9+C11+C13</f>
         <v>4336.1524222270118</v>
       </c>
@@ -3363,25 +3352,29 @@
         <v>153</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="30">
+      <c r="C16" s="22">
         <f>C5+C10+C12+C14</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>155</v>
       </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="31">
+      <c r="C19" s="22">
         <f>0.01*'Промежуточные расчеты'!C5*'Исходные данные'!C16*2716</f>
         <v>893.60202400000003</v>
       </c>
@@ -3394,7 +3387,7 @@
         <v>157</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="28">
+      <c r="C20" s="36">
         <f>C19/C46</f>
         <v>0.20608178333847718</v>
       </c>
@@ -3407,7 +3400,7 @@
         <v>158</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="31">
+      <c r="C21" s="22">
         <f>0.01*(5220*'Исходные данные'!C6+22600*'Исходные данные'!C5+15490*'Исходные данные'!C8+36167*'Исходные данные'!C9+7982*'Исходные данные'!C11)</f>
         <v>160.95226</v>
       </c>
@@ -3420,7 +3413,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="28">
+      <c r="C22" s="36">
         <f>C21/C46</f>
         <v>3.7118681339466442E-2</v>
       </c>
@@ -3433,7 +3426,7 @@
         <v>160</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="31">
+      <c r="C23" s="22">
         <f>1734*0.00001*'Исходные данные'!C38*'Исходные данные'!C39</f>
         <v>4.6436520000000003</v>
       </c>
@@ -3446,7 +3439,7 @@
         <v>161</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="28">
+      <c r="C24" s="36">
         <f>C23/C46</f>
         <v>1.0709153064354365E-3</v>
       </c>
@@ -3459,7 +3452,7 @@
         <v>162</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="31">
+      <c r="C25" s="22">
         <f>1731*0.0001*(0.00124*'Исходные данные'!C25*'Промежуточные расчеты'!C17+0.01*'Исходные данные'!C27*(2*'Исходные данные'!C28+3*'Исходные данные'!C29))*'Промежуточные расчеты'!C23</f>
         <v>19.445143790552468</v>
       </c>
@@ -3472,7 +3465,7 @@
         <v>163</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="28">
+      <c r="C26" s="36">
         <f>C25/C46</f>
         <v>4.4844234927898597E-3</v>
       </c>
@@ -3485,7 +3478,7 @@
         <v>164</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="20">
+      <c r="C27" s="22">
         <f>1*'Исходные данные'!C14*'Исходные данные'!C13</f>
         <v>1264.5</v>
       </c>
@@ -3498,7 +3491,7 @@
         <v>165</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="28">
+      <c r="C28" s="36">
         <f>C27/C46</f>
         <v>0.29161797761494818</v>
       </c>
@@ -3511,7 +3504,7 @@
         <v>166</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="31">
+      <c r="C29" s="22">
         <f>0.001*'Исходные данные'!C38*'Исходные данные'!C40*('Исходные данные'!C13+50)</f>
         <v>476.65800000000002</v>
       </c>
@@ -3524,7 +3517,7 @@
         <v>167</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="28">
+      <c r="C30" s="36">
         <f>C29/C46</f>
         <v>0.10992648633767178</v>
       </c>
@@ -3537,7 +3530,7 @@
         <v>168</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="31">
+      <c r="C31" s="22">
         <f>1.24*0.0000001*'Промежуточные расчеты'!C17*'Исходные данные'!C25*6912</f>
         <v>6.1602053395505108</v>
       </c>
@@ -3550,7 +3543,7 @@
         <v>169</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="28">
+      <c r="C32" s="36">
         <f>C31/C46</f>
         <v>1.420661623418367E-3</v>
       </c>
@@ -3563,7 +3556,7 @@
         <v>170</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="20">
+      <c r="C33" s="22">
         <f>4042*0.000001*'Исходные данные'!C34*'Исходные данные'!C36</f>
         <v>0</v>
       </c>
@@ -3576,7 +3569,7 @@
         <v>171</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="28">
+      <c r="C34" s="36">
         <f>C33/C46</f>
         <v>0</v>
       </c>
@@ -3589,7 +3582,7 @@
         <v>172</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="31">
+      <c r="C35" s="22">
         <f>2452*0.00001*('Исходные данные'!C48*'Исходные данные'!C50+'Исходные данные'!C34*'Исходные данные'!C35+'Исходные данные'!C18*'Исходные данные'!C22)</f>
         <v>43.253280000000004</v>
       </c>
@@ -3602,7 +3595,7 @@
         <v>173</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="28">
+      <c r="C36" s="36">
         <f>C35/C46</f>
         <v>9.9750368041226466E-3</v>
       </c>
@@ -3615,7 +3608,7 @@
         <v>180</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="27">
+      <c r="C37" s="22">
         <f>1.2938+0.0000895*'Исходные данные'!C42</f>
         <v>1.323156</v>
       </c>
@@ -3628,7 +3621,7 @@
         <v>183</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="27">
+      <c r="C38" s="22">
         <f>1.6448+0.0007065*'Исходные данные'!C42</f>
         <v>1.8765320000000001</v>
       </c>
@@ -3641,7 +3634,7 @@
         <v>184</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="27">
+      <c r="C39" s="22">
         <f>1.3012</f>
         <v>1.3011999999999999</v>
       </c>
@@ -3654,7 +3647,7 @@
         <v>185</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="27">
+      <c r="C40" s="22">
         <f>1.4743+0.0002205*'Исходные данные'!C42</f>
         <v>1.546624</v>
       </c>
@@ -3667,7 +3660,7 @@
         <v>182</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="20">
+      <c r="C41" s="22">
         <f>1.308</f>
         <v>1.3080000000000001</v>
       </c>
@@ -3680,7 +3673,7 @@
         <v>174</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="31">
+      <c r="C42" s="22">
         <f>0.00001*(('Исходные данные'!C43*'Тепловой баланс'!C38+'Исходные данные'!C44*'Тепловой баланс'!C37+'Исходные данные'!C46*'Тепловой баланс'!C41+'Исходные данные'!C45*'Тепловой баланс'!C39)*'Промежуточные расчеты'!C34+('Исходные данные'!C48*'Исходные данные'!C50+'Исходные данные'!C34*'Исходные данные'!C35+'Исходные данные'!C18*'Исходные данные'!C22+'Промежуточные расчеты'!C34*'Исходные данные'!C45*'Промежуточные расчеты'!C23/(1-'Промежуточные расчеты'!C23))*'Тепловой баланс'!C40)*'Исходные данные'!C42</f>
         <v>838.14934296186959</v>
       </c>
@@ -3693,7 +3686,7 @@
         <v>175</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="28">
+      <c r="C43" s="36">
         <f>C42/C46</f>
         <v>0.1932933304340356</v>
       </c>
@@ -3706,7 +3699,7 @@
         <v>176</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="31">
+      <c r="C44" s="22">
         <f>C15-(C19+C21+C23+C25+C27+C29+C31+C33+C35+C42)</f>
         <v>628.7885141350398</v>
       </c>
@@ -3719,7 +3712,7 @@
         <v>177</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="31">
+      <c r="C45" s="22">
         <f>C44/C46</f>
         <v>0.14501070370863467</v>
       </c>
@@ -3732,7 +3725,7 @@
         <v>178</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="26">
+      <c r="C46" s="22">
         <f>C19+C21+C23+C25+C27+C29+C31+C33+C35+C42+C44</f>
         <v>4336.1524222270118</v>
       </c>
@@ -3745,18 +3738,22 @@
         <v>179</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="30">
+      <c r="C47" s="22">
         <f>C20+C22+C24+C26+C28+C30+C32+C34+C36+C43+C45</f>
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
@@ -3765,7 +3762,7 @@
       <c r="B50" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="22">
         <f>C4+C9-C42</f>
         <v>3307.448079265142</v>
       </c>
@@ -3778,7 +3775,7 @@
         <v>188</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="31">
+      <c r="C51" s="22">
         <f>C50/('Промежуточные расчеты'!C12*0.001)</f>
         <v>14075.394422618539</v>
       </c>
@@ -3793,7 +3790,7 @@
       <c r="B52" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="22">
         <f>100-'Исходные данные'!C19-'Исходные данные'!C20-'Исходные данные'!C21-'Исходные данные'!C22</f>
         <v>82.8</v>
       </c>
@@ -3804,7 +3801,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="20"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3812,7 +3809,7 @@
         <v>190</v>
       </c>
       <c r="B54" s="18"/>
-      <c r="C54" s="20"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3820,7 +3817,7 @@
         <v>198</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="31">
+      <c r="C55" s="22">
         <f>0.01*C19/'Исходные данные'!C16</f>
         <v>25.531486400000006</v>
       </c>
@@ -3835,7 +3832,7 @@
       <c r="B56" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="31">
+      <c r="C56" s="22">
         <f>(C55*1000)/($C$51*0.01*$C$52)</f>
         <v>2.1907115052395807</v>
       </c>
@@ -3846,7 +3843,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="18"/>
-      <c r="C57" s="31"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3854,7 +3851,7 @@
         <v>195</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="20"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3862,7 +3859,7 @@
         <v>199</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="20">
+      <c r="C59" s="22">
         <f>IF('Исходные данные'!C34=0,0,C45/'Исходные данные'!C34*10)</f>
         <v>0</v>
       </c>
@@ -3877,7 +3874,7 @@
       <c r="B60" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="31">
+      <c r="C60" s="22">
         <f>(C59*1000)/($C$51*0.01*$C$52)</f>
         <v>0</v>
       </c>
@@ -3892,7 +3889,7 @@
       <c r="B61" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="22">
         <f>C60*'Исходные данные'!C34/10</f>
         <v>0</v>
       </c>
@@ -3903,7 +3900,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="20"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,7 +3908,7 @@
         <v>196</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="20"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,7 +3916,7 @@
         <v>202</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="31">
+      <c r="C64" s="22">
         <f>C9/'Исходные данные'!C24*10</f>
         <v>16.164781915364312</v>
       </c>
@@ -3934,7 +3931,7 @@
       <c r="B65" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C65" s="31">
+      <c r="C65" s="22">
         <f>(C64*1000)/($C$51*0.01*$C$52)</f>
         <v>1.3870079151238646</v>
       </c>
@@ -3945,7 +3942,7 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="31"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,7 +3950,7 @@
         <v>206</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="31"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3961,7 +3958,7 @@
         <v>207</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="31">
+      <c r="C68" s="22">
         <f>C11/'Исходные данные'!C27*10</f>
         <v>16.57</v>
       </c>
@@ -3976,7 +3973,7 @@
       <c r="B69" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="22">
         <f>(C68*1000)/($C$51*0.01*$C$52)</f>
         <v>1.4217773721869891</v>
       </c>
@@ -3987,7 +3984,7 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="18"/>
-      <c r="C70" s="31"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3995,7 +3992,7 @@
         <v>208</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="31"/>
+      <c r="C71" s="22"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4003,7 +4000,7 @@
         <v>210</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="31">
+      <c r="C72" s="22">
         <f>C31/'Исходные данные'!C25</f>
         <v>0.96858574521234442</v>
       </c>
@@ -4018,7 +4015,7 @@
       <c r="B73" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="22">
         <f>(C72*1000)/($C$51*0.01*$C$52)</f>
         <v>8.3108828941809501E-2</v>
       </c>
@@ -4029,7 +4026,7 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="20"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4037,7 +4034,7 @@
         <v>212</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="20"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4045,7 +4042,7 @@
         <v>204</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="31">
+      <c r="C76" s="22">
         <f>C29/'Исходные данные'!C38*10</f>
         <v>18.333000000000002</v>
       </c>
@@ -4060,7 +4057,7 @@
       <c r="B77" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77" s="22">
         <f>(C76*1000)/($C$51*0.01*$C$52)</f>
         <v>1.5730503659809338</v>
       </c>
@@ -4071,7 +4068,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="20"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4079,7 +4076,7 @@
         <v>213</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="20"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,7 +4084,7 @@
         <v>214</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="31">
+      <c r="C80" s="22">
         <f>C15/100</f>
         <v>43.36152422227012</v>
       </c>
@@ -4102,7 +4099,7 @@
       <c r="B81" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="22">
         <f>(C80*1000)/($C$51*0.01*$C$52)</f>
         <v>3.7206055499554425</v>
       </c>
